--- a/plots/countries/plot data/Switzerland.xlsx
+++ b/plots/countries/plot data/Switzerland.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>6.85203071626767</v>
+        <v>7.04252891982036</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>17.7540855390058</v>
+        <v>17.7540855059724</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.119352337133899</v>
+        <v>0.119352337100541</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>6.57574111216657</v>
+        <v>6.57578583722595</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>2.51405343753916</v>
+        <v>2.51400867295659</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>14.6725788250811</v>
+        <v>14.6705626994462</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>3.91283921842046</v>
+        <v>3.91294089365401</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.9592455361055</v>
+        <v>-2.66645536558933</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>2.26486178203119</v>
+        <v>2.26235041729696</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>6.8243270790557</v>
+        <v>6.99527206373981</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>19.1034219365979</v>
+        <v>19.1034181338209</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13642889102634</v>
+        <v>0.136428891006155</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>6.80536355498253</v>
+        <v>6.80541192849575</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>2.79713961186887</v>
+        <v>2.79605971699495</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>15.1619873769469</v>
+        <v>15.1599200740313</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>3.56434106608854</v>
+        <v>3.56444348872489</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-6.02011596783955</v>
+        <v>-6.83602516429688</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>2.14519959176324</v>
+        <v>2.14305584022292</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>6.73191769832662</v>
+        <v>6.92956898372335</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>19.1369786711784</v>
+        <v>19.1369729832793</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>0.135521859650267</v>
+        <v>0.135521859661907</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>6.38492556896631</v>
+        <v>6.38514283615853</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>2.89063966771446</v>
+        <v>2.89093439832446</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>15.490501550652</v>
+        <v>15.4883931510203</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>3.37461331164344</v>
+        <v>3.37473120432926</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.4058254063254</v>
+        <v>-4.70404973220504</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>2.12787332107616</v>
+        <v>2.12586700839072</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>6.63621917228315</v>
+        <v>6.87560127553492</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>18.5211943906151</v>
+        <v>18.521188702213</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.14219420164867</v>
+        <v>0.14219420165132</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>6.21675917418504</v>
+        <v>6.21697691272281</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>2.55961762084989</v>
+        <v>2.55889625627597</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>14.4158746441831</v>
+        <v>14.4138085974896</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>3.13536251066097</v>
+        <v>3.13542815415823</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-5.3093671844545</v>
+        <v>-5.33293840287559</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>2.05212319157975</v>
+        <v>2.05020306545754</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>6.61614458300676</v>
+        <v>6.83864907590872</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>17.2404511649888</v>
+        <v>17.2404473607005</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>0.143901481006036</v>
+        <v>0.143901480996887</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>6.15775319973943</v>
+        <v>6.15800019679197</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>2.60200063060983</v>
+        <v>2.60024073023931</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>14.5855518572483</v>
+        <v>14.5836431634287</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>3.31434591575418</v>
+        <v>3.31441103996519</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.95251740290524</v>
+        <v>-1.92567753818002</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>1.96195519483393</v>
+        <v>1.960174668488</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>6.61477158075042</v>
+        <v>6.85952753584548</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>18.2747048985973</v>
+        <v>18.2747048630405</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>0.140733493389541</v>
+        <v>0.140733493387312</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>6.2994371443758</v>
+        <v>6.29962566635853</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>2.63996884196297</v>
+        <v>2.6397041689389</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>14.2781386051606</v>
+        <v>14.2762672625328</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>3.31754257157166</v>
+        <v>3.3175829080128</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.3074003723436</v>
+        <v>-4.17031982309981</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>1.94576685702161</v>
+        <v>1.94417666531134</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>6.5183786697248</v>
+        <v>6.70050258698259</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>19.1211408700882</v>
+        <v>19.1211580388408</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>0.145090448600532</v>
+        <v>0.145090448571403</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>6.04401630254442</v>
+        <v>6.04422886597434</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>2.85838362951101</v>
+        <v>2.85706588099951</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>14.3415688286922</v>
+        <v>14.339635963805</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>3.22503657623736</v>
+        <v>3.22508739492502</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-6.24681653893542</v>
+        <v>-7.47661440877438</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>1.91952233306382</v>
+        <v>1.91802307049197</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>6.29601502669033</v>
+        <v>6.49526735691313</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>17.7014119541614</v>
+        <v>17.7014463259917</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>0.139696746641518</v>
+        <v>0.13969674665482</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>6.00286537252842</v>
+        <v>6.00316255094935</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>2.85969957884922</v>
+        <v>2.85984453764867</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>14.8992834128394</v>
+        <v>14.8974449134153</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>3.19388322564596</v>
+        <v>3.19396938870142</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.9065217796199</v>
+        <v>-4.18093740648068</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>1.87860490612085</v>
+        <v>1.87720278665631</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>6.25236976522222</v>
+        <v>6.44954450563778</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>18.5188669078636</v>
+        <v>18.5189203988197</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>0.138378741829485</v>
+        <v>0.138378741818583</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>6.20205920299848</v>
+        <v>6.20238447940548</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>3.22259711925923</v>
+        <v>3.22159899506394</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>15.1078003837625</v>
+        <v>15.1058690371189</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>3.24355276351731</v>
+        <v>3.24370995516722</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.1607352218768</v>
+        <v>-3.60227529769997</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>1.83527848061598</v>
+        <v>1.8339921525491</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>6.19188738465992</v>
+        <v>6.3694255170654</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>17.8391235183078</v>
+        <v>17.8392879199062</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>0.136502628520845</v>
+        <v>0.136502628522618</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>6.06010805780174</v>
+        <v>6.06049588745368</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>3.24855280690656</v>
+        <v>3.24918424718008</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>15.7129310275525</v>
+        <v>15.7108103273956</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>3.3435544492325</v>
+        <v>3.34371009243582</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.75727065083059</v>
+        <v>-1.38656580771812</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>1.80190372361671</v>
+        <v>1.80074442755115</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>6.16353633631867</v>
+        <v>6.42067570386794</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>16.7514161947863</v>
+        <v>16.7516006921387</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>0.130108903377577</v>
+        <v>0.130108903410608</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>6.00244712175716</v>
+        <v>6.00278739305864</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>3.17163706151584</v>
+        <v>3.17111059294852</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>15.9510726503847</v>
+        <v>15.9489901374118</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>3.65413414969268</v>
+        <v>3.65622024656498</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>4.41092958911272</v>
+        <v>3.92746670067445</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>1.7805285739888</v>
+        <v>1.77938828155213</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>6.19867335437866</v>
+        <v>6.44326966102326</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>18.0892304529438</v>
+        <v>18.0894371339277</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>0.130639169154221</v>
+        <v>0.130639169130424</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>6.25057693204015</v>
+        <v>6.25092515796919</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>3.31296640828211</v>
+        <v>3.31100749021933</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>15.6536124120915</v>
+        <v>15.6516756005251</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>3.73057605830636</v>
+        <v>3.73079230614368</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.744088066218494</v>
+        <v>-0.151570605169331</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>1.78076965862163</v>
+        <v>1.7797180789809</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>6.12509384300962</v>
+        <v>6.34977919527059</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>16.9481222100776</v>
+        <v>16.9482668166763</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>0.12843286646165</v>
+        <v>0.128432866464831</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>5.80314959325603</v>
+        <v>5.8036011470589</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>3.38971710074621</v>
+        <v>3.38964008080451</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>15.5774078275188</v>
+        <v>15.5784720304204</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>3.85426968293044</v>
+        <v>3.854614050469</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-2.53306791865874</v>
+        <v>-2.68717555386507</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>1.77562930858828</v>
+        <v>1.77468429279573</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>6.03575802479141</v>
+        <v>6.235932849154</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>17.9052760511331</v>
+        <v>17.9054499072287</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>0.123567372760019</v>
+        <v>0.123567372732741</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>5.8928078558442</v>
+        <v>5.89331767996068</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>3.38717492687751</v>
+        <v>3.38776033350393</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>15.7411446220988</v>
+        <v>15.7395195051855</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>3.85391588195801</v>
+        <v>3.85410450190721</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-1.94109810025457</v>
+        <v>-2.03542615074362</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>1.73435450601055</v>
+        <v>1.7334972608184</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>6.01949478913245</v>
+        <v>6.21538896872961</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>17.7592975722955</v>
+        <v>17.7595030762601</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>0.126736198980435</v>
+        <v>0.126736198978569</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>6.03678263310502</v>
+        <v>6.03735900676545</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>3.68382193676179</v>
+        <v>3.68162817093864</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>15.7827919587205</v>
+        <v>15.7817118296285</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>4.13656576130229</v>
+        <v>4.13662379835995</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-3.43156104773995</v>
+        <v>-4.82417145104943</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>1.73627771619929</v>
+        <v>1.73550166947203</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>6.09987069639688</v>
+        <v>6.34373105843244</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>18.0014042304922</v>
+        <v>18.0016673515999</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>0.137806425362442</v>
+        <v>0.137806425391133</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>6.03520207677209</v>
+        <v>6.03571742832783</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>3.81825630400103</v>
+        <v>3.81670374596446</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>15.8466882070555</v>
+        <v>15.8460103871917</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>4.27691926690001</v>
+        <v>4.27718019691525</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-3.21090774729776</v>
+        <v>-2.39705780645718</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>1.7002425442515</v>
+        <v>1.69955190260507</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>6.14095558301755</v>
+        <v>6.33048995370238</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>17.1385951328363</v>
+        <v>17.1389825443335</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>0.123359045538102</v>
+        <v>0.123359045548307</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>6.19987696926797</v>
+        <v>6.2003895704252</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>4.03490089414979</v>
+        <v>4.03401241673312</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>15.9641312176815</v>
+        <v>15.963727474277</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>4.3206695108146</v>
+        <v>4.32088152743288</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.51019796093527</v>
+        <v>-0.565699380054152</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>1.6693759564606</v>
+        <v>1.66874203602063</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>6.20475411506161</v>
+        <v>6.42687998870653</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>15.2865815255592</v>
+        <v>15.2870363786149</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>0.117704301648109</v>
+        <v>0.117704301649313</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>6.00510825682914</v>
+        <v>6.00565375853376</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>3.72303540355454</v>
+        <v>3.72294151129754</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>16.289216861739</v>
+        <v>16.2888489177285</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>4.40385402999959</v>
+        <v>4.40382546338276</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.812702753598041</v>
+        <v>-1.56097326522875</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>1.62606238711706</v>
+        <v>1.62552407950696</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>6.29752236113592</v>
+        <v>6.49488997236295</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>16.1540267007302</v>
+        <v>16.1545658779242</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>0.116827576386783</v>
+        <v>0.116827576378302</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>6.06691639021512</v>
+        <v>6.06748300587852</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>3.84215292076058</v>
+        <v>3.84286347959465</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>16.6369500759436</v>
+        <v>16.6366482991177</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>4.358964910792</v>
+        <v>4.35916813427027</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-2.0476374521997</v>
+        <v>-1.8633403132537</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>1.58083483163221</v>
+        <v>1.58036714495347</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>6.19540805019348</v>
+        <v>6.39489143281506</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>15.7344524536383</v>
+        <v>15.734891034284</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>0.11352237668935</v>
+        <v>0.113522376698497</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>5.7510643159984</v>
+        <v>5.75163368596798</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>3.67908334940419</v>
+        <v>3.68055464597403</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>16.4333272671217</v>
+        <v>16.4324127820874</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>4.1341769029256</v>
+        <v>4.13388155929045</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-2.39136345331496</v>
+        <v>-2.2644736858379</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>1.53575084059867</v>
+        <v>1.53537965958625</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>6.20480084158123</v>
+        <v>6.4214188093831</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>16.9299625962359</v>
+        <v>16.9304305581215</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>0.130086489926194</v>
+        <v>0.130086489914826</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>5.85418684305729</v>
+        <v>5.85483263401606</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>3.85387879489429</v>
+        <v>3.85216465686189</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>16.3199921914299</v>
+        <v>16.3189752354128</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>4.37316158579732</v>
+        <v>4.37264266529426</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-3.11846018715657</v>
+        <v>-2.21091907409557</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>1.49434438038185</v>
+        <v>1.4940135759859</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>6.17875340306861</v>
+        <v>6.36501349573023</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>13.7178657269652</v>
+        <v>13.7185477740188</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>0.134610677761347</v>
+        <v>0.134610677769128</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>5.42600121381021</v>
+        <v>5.42687247704202</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>3.60729068509677</v>
+        <v>3.60641976766764</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>16.1404730319195</v>
+        <v>16.1393525189975</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>4.37862416275351</v>
+        <v>4.37826789140889</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-1.13815552268871</v>
+        <v>-3.35811547838557</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>1.45877653272174</v>
+        <v>1.45847552996124</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>6.18138451569259</v>
+        <v>6.42174100192119</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>14.9790488340668</v>
+        <v>14.9799205246366</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>0.107167917780944</v>
+        <v>0.107167917775237</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>5.42460309164585</v>
+        <v>5.4256812756792</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>3.65068220070377</v>
+        <v>3.65065288483077</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>16.2579076880806</v>
+        <v>16.2566552783412</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>4.35442158665051</v>
+        <v>4.35376730786432</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-1.64320828612116</v>
+        <v>-0.426176831560208</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>1.419896900989</v>
+        <v>1.41960488476017</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>6.09982816426485</v>
+        <v>6.30740420082143</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>15.8545715928662</v>
+        <v>15.855579488603</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>0.097461195218501</v>
+        <v>0.0974611952183842</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>5.4911244402674</v>
+        <v>5.49243947563707</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>3.74369441326977</v>
+        <v>3.75355317791721</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>16.1697356384695</v>
+        <v>16.1679940782409</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>4.35854865845131</v>
+        <v>4.3569497142704</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-1.80985363983592</v>
+        <v>-0.232899544749676</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>1.41393992091573</v>
+        <v>1.41369982967038</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>6.23124990264089</v>
+        <v>6.4165463770048</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>12.447961024864</v>
+        <v>12.4491459680701</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0911121006240392</v>
+        <v>0.0911121006189829</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>5.09015378745412</v>
+        <v>5.09172579556877</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>3.61426423127584</v>
+        <v>3.63446250369509</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>16.0628791675504</v>
+        <v>16.0618925314856</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>4.36575163065294</v>
+        <v>4.36663940012491</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.703621252126213</v>
+        <v>-3.9966318321331</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>1.39088193779699</v>
+        <v>1.39068814412612</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>6.1347396904028</v>
+        <v>6.31108741567895</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>13.2937577520721</v>
+        <v>13.2951127298447</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>0.0818313053134648</v>
+        <v>0.0818313053030617</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>4.97129681891271</v>
+        <v>4.9731192906076</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>3.30260633781874</v>
+        <v>3.33366044289953</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>15.3265173233833</v>
+        <v>15.3282191126443</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>4.32293198931498</v>
+        <v>4.32412037121733</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-1.54304648931398</v>
+        <v>1.17359083734519</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>1.34787701380068</v>
+        <v>1.34775775578184</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>6.12228311443308</v>
+        <v>6.33187661716553</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>13.7648219274929</v>
+        <v>13.7651556237992</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0792111438888634</v>
+        <v>0.0792111438734227</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>4.97518145050903</v>
+        <v>4.975066546296</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>3.38921213863487</v>
+        <v>3.43233151536804</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>15.1639256658169</v>
+        <v>15.1721089448194</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>4.2823797996956</v>
+        <v>4.2845123150563</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-2.03652808622213</v>
+        <v>-3.20459276358303</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>1.30966931348523</v>
+        <v>1.30960245533645</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>6.07397586033136</v>
+        <v>6.32219893915008</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>13.1502515224913</v>
+        <v>13.1495699341371</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>0.084718823828839</v>
+        <v>0.0847183058329709</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>4.94682551374355</v>
+        <v>4.94483960804222</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>3.30639938333907</v>
+        <v>3.36053598520973</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>14.9023044640869</v>
+        <v>14.9180924426184</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>4.38491000568291</v>
+        <v>4.40853782949479</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-1.32936781549368</v>
+        <v>-1.82169735979376</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>1.26667633108403</v>
+        <v>1.26664776263374</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>6.01432577742624</v>
+        <v>6.21802164330224</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>11.9483960185705</v>
+        <v>11.9467147748019</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0757654759127361</v>
+        <v>0.0757651268863008</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>4.78983984597454</v>
+        <v>4.7859958751864</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>3.37161600200978</v>
+        <v>3.43711701676871</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>14.9078281643459</v>
+        <v>14.9317486311771</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>4.27270344731076</v>
+        <v>4.28129883457756</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>0.116437954803656</v>
+        <v>1.11986481455216</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>1.23380605401073</v>
+        <v>1.23381481373187</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>5.91300582478846</v>
+        <v>6.11946981198947</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>11.9425308040776</v>
+        <v>11.939794134627</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0786994285576144</v>
+        <v>0.0786995617020284</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>4.70331038769198</v>
+        <v>4.70050182628008</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>3.38231552062473</v>
+        <v>3.45920106044997</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>14.8661671275711</v>
+        <v>14.8936649618813</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>4.26818150294048</v>
+        <v>4.26462259373753</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-0.628586099820676</v>
+        <v>-3.14501384246656</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>1.20746020488496</v>
+        <v>1.207508802127</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>5.88285600621708</v>
+        <v>6.1130728735289</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>11.116970581277</v>
+        <v>11.1128640741901</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0712906054111069</v>
+        <v>0.0712873375935088</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>4.49976821980021</v>
+        <v>4.49524736209918</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>3.28991668893642</v>
+        <v>3.37801846309036</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>13.5632431826876</v>
+        <v>13.5950942738918</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>4.09356893123878</v>
+        <v>4.09046141504345</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-0.650381411872884</v>
+        <v>-1.22277951180157</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>1.17920335266174</v>
+        <v>1.18401984785738</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>5.92509499962953</v>
+        <v>6.14662022683608</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>12.3786710681726</v>
+        <v>12.3781031085162</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0629902782118266</v>
+        <v>0.0629366800134297</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>4.59457397795497</v>
+        <v>4.59284690006615</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>3.23863665209916</v>
+        <v>3.33605077877673</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>13.7519948109851</v>
+        <v>13.7753867828405</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>3.93940438678393</v>
+        <v>3.90722308314541</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-1.27370845129973</v>
+        <v>-0.390988071364978</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>1.15092319617286</v>
+        <v>1.16079287949849</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>5.88760207306438</v>
+        <v>6.03538433834272</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>10.0494525580319</v>
+        <v>10.0537579525325</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0646240237571705</v>
+        <v>0.0640644476216468</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>4.21936707096021</v>
+        <v>4.21925010498404</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>3.18639916623223</v>
+        <v>3.2902727414364</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>13.5813010849258</v>
+        <v>13.5991230900035</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>3.42796936989219</v>
+        <v>3.40453782379548</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>0.433095833978122</v>
+        <v>-1.42947979444446</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>1.11941958461907</v>
+        <v>1.13404040203967</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>6.00139003335321</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>9.71831849593979</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.0558541771713676</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>3.86318415370262</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>3.17194512394717</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>13.6161338523628</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3.20397623185144</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1.29919810679101</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.12260291011832</v>
       </c>
     </row>
   </sheetData>
